--- a/biology/Microbiologie/Milieu_BEA/Milieu_BEA.xlsx
+++ b/biology/Microbiologie/Milieu_BEA/Milieu_BEA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu bile-esculine-azoture (BEA) ou bile-esculine-azoture-agar (BEAA) est un milieu de culture sélectif et différentiel employé en microbiologie pour la culture et l'identification des Entérocoques. L'azoture est aussi appelé azide.
 </t>
@@ -511,7 +523,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Isolement sélectif des Enterococcus et Streptococcus du groupe D : l'azoture de sodium inhibe la croissance des bactéries Gram - et de tous les streptocoques sauf ceux du groupe D, et la bile de bœuf inhibe la croissance des bactéries Gram + sauf les Enterococcus et Streptococcus du groupe D. Mise en évidence de l'hydrolyse de l'esculine.
 </t>
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>selon la norme ISO 7899-2 :
 -Peptone:...................................17,0 g
@@ -583,7 +599,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">45 g par litre. Autoclavage classique
 </t>
@@ -614,7 +632,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des colonies noires montrent l'hydrolyse de l'esculine révélée par les ions de fer III (une confusion est possible avec le sulfure d'hydrogène mais les bactéries cultivant sur ce milieu sont habituellement H2S -). L'enzyme mise ainsi en évidence est une β-glucosidase
 Certains fabricants proposent un milieu analogue sans azide/azoture (gélose Bile-Esculine) utilisé pour l'identification de l'hydrolyse de l'esculine par les bactéries.
